--- a/src/demo/zxxt_06_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_06_excel_xlsx.w3mi.data.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\xtt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rows" sheetId="1" r:id="rId1"/>
     <sheet name="Columns" sheetId="2" r:id="rId2"/>
+    <sheet name="Columns (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_WHOLE_LIST">Rows!$B$3:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>{R-TITLE}</t>
   </si>
@@ -49,9 +50,6 @@
     <t>{R-T-PAR_DIR}</t>
   </si>
   <si>
-    <t>{R-T;direction=column}</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -59,13 +57,40 @@
   </si>
   <si>
     <t xml:space="preserve">shifts by columns and rows should be equal </t>
+  </si>
+  <si>
+    <t>{R-T;group=DIR-PAR_DIR}</t>
+  </si>
+  <si>
+    <t>Convert R-T to tree</t>
+  </si>
+  <si>
+    <t>{R-T;direction=column;group=DIR-PAR_DIR}</t>
+  </si>
+  <si>
+    <t>{R-C;direction=column}</t>
+  </si>
+  <si>
+    <t>{R-C;top=X}</t>
+  </si>
+  <si>
+    <t>{R-C-DIR}</t>
+  </si>
+  <si>
+    <t>{R-C-LEVEL}</t>
+  </si>
+  <si>
+    <t>{R-C-PAR_DIR}</t>
+  </si>
+  <si>
+    <t>TODO Fix bug with outline level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -233,8 +258,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +731,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -706,6 +744,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1060,30 +1101,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1116,14 +1164,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1266,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1144,20 +1274,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1165,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1173,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/demo/zxxt_06_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_06_excel_xlsx.w3mi.data.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Rows" sheetId="1" r:id="rId1"/>
-    <sheet name="Columns" sheetId="2" r:id="rId2"/>
-    <sheet name="Columns (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Columns No Group" sheetId="4" r:id="rId2"/>
+    <sheet name="Columns Group in Excel" sheetId="2" r:id="rId3"/>
+    <sheet name="Columns Group in ABAP" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_WHOLE_LIST">Rows!$B$3:$D$4</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>{R-TITLE}</t>
   </si>
@@ -83,7 +84,7 @@
     <t>{R-C-PAR_DIR}</t>
   </si>
   <si>
-    <t>TODO Fix bug with outline level</t>
+    <t>{R-T;direction=column}</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1109,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1171,9 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1182,7 +1185,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1202,9 +1205,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="14"/>
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1254,89 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>

--- a/src/demo/zxxt_06_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_06_excel_xlsx.w3mi.data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\AppData\Local\SAP\SAP GUI\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Columns Group in Excel" sheetId="2" r:id="rId3"/>
     <sheet name="Columns Group in ABAP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_WHOLE_LIST">Rows!$B$3:$D$4</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1109,7 +1106,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
